--- a/PSLExample.xlsx
+++ b/PSLExample.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileSharing userName="DDDD" algorithmName="SHA-512" hashValue="Q4jp5PXJrbHVg1ne8xIiLYf+Mc6VKl84XrBHSDPboC0CU7PZ9ohbGa2NpFNrgjbNa7TDozqVT6anWlE7xPx2jQ==" saltValue="qLG5/LF+zqXRHhxnpyQI/Q==" spinCount="100000"/>
   <workbookPr showInkAnnotation="0" codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Software\Trash\IntelliJ IDEA 2020.3.2\workspace\SLDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6D7CDE-BDB3-4FCD-85E3-6ED578D55C40}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B1A32A6-1B54-4096-A35A-EF105D526E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="905" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/PSLExample.xlsx
+++ b/PSLExample.xlsx
@@ -2,14 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
-  <fileSharing userName="DDDD" algorithmName="SHA-512" hashValue="Q4jp5PXJrbHVg1ne8xIiLYf+Mc6VKl84XrBHSDPboC0CU7PZ9ohbGa2NpFNrgjbNa7TDozqVT6anWlE7xPx2jQ==" saltValue="qLG5/LF+zqXRHhxnpyQI/Q==" spinCount="100000"/>
   <workbookPr showInkAnnotation="0" codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Software\Trash\IntelliJ IDEA 2020.3.2\workspace\SLDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B1A32A6-1B54-4096-A35A-EF105D526E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C882E31-ED28-482D-A8A5-31314B6C2F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="905" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Завідувач кафедри</t>
   </si>
@@ -100,9 +99,6 @@
   </si>
   <si>
     <t>Норматив</t>
-  </si>
-  <si>
-    <t>25|12.5</t>
   </si>
   <si>
     <t>Викладач 12</t>
@@ -1118,7 +1114,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
@@ -1136,7 +1132,7 @@
       <c r="B1" s="7"/>
       <c r="C1" s="8"/>
       <c r="D1" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
@@ -1157,19 +1153,19 @@
     </row>
     <row r="3" spans="1:20" ht="19.5" thickBot="1">
       <c r="A3" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:20" ht="150.75">
       <c r="A4" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>8</v>
@@ -1178,7 +1174,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>6</v>
@@ -1240,23 +1236,14 @@
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
-      <c r="I5" s="23">
-        <v>0.25</v>
-      </c>
+      <c r="I5" s="23"/>
       <c r="J5" s="18"/>
       <c r="K5" s="18"/>
-      <c r="L5" s="19">
-        <v>0.33</v>
-      </c>
+      <c r="L5" s="19"/>
       <c r="M5" s="18"/>
-      <c r="N5" s="19">
-        <f>0.5</f>
-        <v>0.5</v>
-      </c>
+      <c r="N5" s="19"/>
       <c r="O5" s="18"/>
-      <c r="P5" s="20" t="s">
-        <v>25</v>
-      </c>
+      <c r="P5" s="20"/>
       <c r="Q5" s="18"/>
       <c r="R5" s="18"/>
       <c r="S5" s="18"/>
@@ -1264,7 +1251,7 @@
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="24"/>

--- a/PSLExample.xlsx
+++ b/PSLExample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Software\Trash\IntelliJ IDEA 2020.3.2\workspace\SLDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C882E31-ED28-482D-A8A5-31314B6C2F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6907781D-2E5A-4FA2-B802-A6630F1A16B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="905" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -193,7 +193,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -376,6 +376,19 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -386,7 +399,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -424,6 +437,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1114,7 +1129,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="P5" sqref="P5"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
@@ -1155,13 +1170,16 @@
       <c r="A3" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G3" s="11"/>
+      <c r="T3" s="26"/>
     </row>
     <row r="4" spans="1:20" ht="150.75">
       <c r="A4" s="12" t="s">
